--- a/insert/dataToInsert/chaines2022.xlsx
+++ b/insert/dataToInsert/chaines2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Travail\Peip\S4\Projet Parcours Numérique\jewelryshop\insert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Travail\Peip\S4\Projet Parcours Numérique\jewelryshop\insert\dataToInsert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C080180A-6CEF-4D1F-822E-8CDC872B2FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE93CB1B-D183-45D6-A344-CBF4ACBA9B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3890" yWindow="3070" windowWidth="14400" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="1160" windowWidth="16050" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataToInsert" sheetId="1" r:id="rId1"/>
@@ -902,12 +902,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
